--- a/Civilworks cost/Expenditure_2017_18/Input Output/IPC Distribution.xlsx
+++ b/Civilworks cost/Expenditure_2017_18/Input Output/IPC Distribution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19965" windowHeight="7635" firstSheet="10" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19965" windowHeight="7635" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Package_wise_str_df" sheetId="13" r:id="rId1"/>
@@ -7120,7 +7120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I423"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
     </sheetView>
@@ -19564,9 +19564,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19620,13 +19620,13 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="51">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="51" t="s">
         <v>264</v>
       </c>
     </row>
